--- a/DateBase/orders/Nha Thu_2026-2-24.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-24.xlsx
@@ -698,6 +698,9 @@
       <c r="C31" t="str">
         <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -759,7 +762,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0301520205167620105578710010059853310510515100</v>
+        <v>03015202051676201055787100100598533105105151010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-2-24.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -702,9 +702,187 @@
         <v>10</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>7</v>
+      </c>
+      <c r="C32" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F32" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" t="str">
+        <v>274_仙子之吻_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F33" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="C34" t="str">
+        <v>225_果汁阳台_Juicy Terrazza_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F34" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>8</v>
+      </c>
+      <c r="C35" t="str">
+        <v>597_尤加利叶小叶_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F35" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="C36" t="str">
+        <v>872_洋牡丹棉花糖_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F36" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>1</v>
+      </c>
+      <c r="C37" t="str">
+        <v>653_大丽花 黑_undefined_undefined_5stems</v>
+      </c>
+      <c r="F37" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" t="str">
+        <v>669_大丽花 红_undefined_undefined_5stems</v>
+      </c>
+      <c r="F38" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F39" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>2</v>
+      </c>
+      <c r="C40" t="str">
+        <v>649_洋牡丹樱花粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F40" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" t="str">
+        <v>651_大丽花 奶油桃子_undefined_undefined_5stems</v>
+      </c>
+      <c r="F41" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>3</v>
+      </c>
+      <c r="C42" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>492_细米花_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>670_大丽花 紫_undefined_undefined_5stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>4</v>
+      </c>
+      <c r="C46" t="str">
+        <v>181_月光女神_undefined_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F47" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="C48" t="str">
+        <v>277_草莓杏仁饼_undefined_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F48" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>586_洋牡丹白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>590_洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>585_洋牡丹红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L31"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -762,7 +940,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03015202051676201055787100100598533105105151010</v>
+        <v>0301520205167620105578710010059853310510515101010753151515320121515101510712202010</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-2-24.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -880,9 +880,95 @@
         <v>10</v>
       </c>
     </row>
+    <row r="52" xml:space="preserve">
+      <c r="C52" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" xml:space="preserve">
+      <c r="A53" t="str">
+        <v>5</v>
+      </c>
+      <c r="C53" t="str" xml:space="preserve">
+        <v xml:space="preserve">349_千层金绿_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F53" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" xml:space="preserve">
+      <c r="C54" t="str" xml:space="preserve">
+        <v xml:space="preserve">350_千层金红_Melaleuca bracteata
+（dyed red）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F54" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" xml:space="preserve">
+      <c r="C55" t="str" xml:space="preserve">
+        <v xml:space="preserve">351_千层金橙_Melaleuca bracteata
+（dyed orange）_Melaleuca bracteata F.Muell._1bunch</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>431_小米果_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F56" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>521_商陆_phytolacca acinosa _undefined_1bunch</v>
+      </c>
+      <c r="F57" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">448_吊米 绿_hanging amaranthus
+green_undefined_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" xml:space="preserve">
+      <c r="C59" t="str" xml:space="preserve">
+        <v xml:space="preserve">542_吊米 红_hanging amaranthus
+red_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" t="str">
+        <v>791_菟葵黑_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F60" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" t="str">
+        <v>787_菟葵粉铃铛_undefined_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -940,7 +1026,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0301520205167620105578710010059853310510515101010753151515320121515101510712202010</v>
+        <v>03015202051676201055787100100598533105105151010107531515153201215151015107122020102055510105550</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-2-24.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-24.xlsx
@@ -965,6 +965,9 @@
       <c r="C61" t="str">
         <v>787_菟葵粉铃铛_undefined_undefined_1bunch</v>
       </c>
+      <c r="F61" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1026,7 +1029,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03015202051676201055787100100598533105105151010107531515153201215151015107122020102055510105550</v>
+        <v>03015202051676201055787100100598533105105151010107531515153201215151015107122020102055510105555</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-2-24.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -969,9 +969,90 @@
         <v>5</v>
       </c>
     </row>
+    <row r="62" xml:space="preserve">
+      <c r="C62" t="str" xml:space="preserve">
+        <v xml:space="preserve">386_菟葵绿粉 
+green_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F62" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" t="str">
+        <v>480_蝴蝶洋牡丹红_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F63" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" t="str">
+        <v>753_蝴蝶洋牡丹黄_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F64" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" t="str">
+        <v>820_蝴蝶洋牡丹粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F65" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" t="str">
+        <v>752_蝴蝶洋牡丹橙_butterfly  Ranunculus_undefined_1bunch</v>
+      </c>
+      <c r="F66" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" t="str">
+        <v>842_蝴蝶洋牡丹鲑鱼粉_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F67" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" xml:space="preserve">
+      <c r="C68" t="str" xml:space="preserve">
+        <v xml:space="preserve">507_风铃花深紫色_Canterbury Bells
+deep purple_undefined_1bunch</v>
+      </c>
+      <c r="F68" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" xml:space="preserve">
+      <c r="C69" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+      <c r="F69" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" xml:space="preserve">
+      <c r="C70" t="str" xml:space="preserve">
+        <v xml:space="preserve">414_风铃花粉色_Canterbury Bells
+pink_undefined_1bunch</v>
+      </c>
+      <c r="F70" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" t="str">
+        <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1029,7 +1110,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>03015202051676201055787100100598533105105151010107531515153201215151015107122020102055510105555</v>
+        <v>0301520205167620105578710010059853310510515101010753151515320121515101510712202010205551010555551051055510100</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-2-24.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-24.xlsx
@@ -1049,6 +1049,9 @@
       <c r="C71" t="str">
         <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
       </c>
+      <c r="F71" t="str">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1110,7 +1113,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0301520205167620105578710010059853310510515101010753151515320121515101510712202010205551010555551051055510100</v>
+        <v>0301520205167620105578710010059853310510515101010753151515320121515101510712202010205551010555551051055510102</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-2-24.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-24.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1050,12 +1050,95 @@
         <v>454_蓝星花_tweedia blue_undefined_1bunch</v>
       </c>
       <c r="F71" t="str">
-        <v>2</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>6</v>
+      </c>
+      <c r="C72" t="str">
+        <v>3_波浪白洋桔梗_Wavy White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F72" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" t="str">
+        <v>12_肉粉洋桔梗_Peach Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F73" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F74" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" t="str">
+        <v>11_香槟洋桔梗_Champagne Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F75" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" t="str">
+        <v>533_风车果_scabiosa pods_undefined_1bunch</v>
+      </c>
+      <c r="F76" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F77" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" t="str">
+        <v>45_拉丝艳粉_Spider pink+_Gerbera L._20stems</v>
+      </c>
+      <c r="F78" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>7</v>
+      </c>
+      <c r="C79" t="str">
+        <v>744_永生吊米深红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F79" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" t="str">
+        <v>707_永生吊米白_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F80" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L71"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L81"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1113,7 +1196,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0301520205167620105578710010059853310510515101010753151515320121515101510712202010205551010555551051055510102</v>
+        <v>0301520205167620105578710010059853310510515101010753151515320121515101510712202010205551010555551051055510102015101051015920200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-2-24.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-24.xlsx
@@ -1135,6 +1135,9 @@
       <c r="A81" t="str">
         <v>8</v>
       </c>
+      <c r="C81" t="str">
+        <v>845_干花紫罗兰_undefined_undefined_1bunch</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>

--- a/DateBase/orders/Nha Thu_2026-2-24.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-24.xlsx
@@ -1138,6 +1138,9 @@
       <c r="C81" t="str">
         <v>845_干花紫罗兰_undefined_undefined_1bunch</v>
       </c>
+      <c r="F81" t="str">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -1199,7 +1202,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0301520205167620105578710010059853310510515101010753151515320121515101510712202010205551010555551051055510102015101051015920200</v>
+        <v>03015202051676201055787100100598533105105151010107531515153201215151015107122020102055510105555510510555101020151010510159202020</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2026-2-24.xlsx
+++ b/DateBase/orders/Nha Thu_2026-2-24.xlsx
@@ -1204,6 +1204,9 @@
       <c r="G2" t="str">
         <v>03015202051676201055787100100598533105105151010107531515153201215151015107122020102055510105555510510555101020151010510159202020</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
